--- a/xlsx/密西西比州_intext.xlsx
+++ b/xlsx/密西西比州_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="259">
   <si>
     <t>密西西比州</t>
   </si>
@@ -29,13 +29,13 @@
     <t>en-Mississippi</t>
   </si>
   <si>
-    <t>政策_政策_美國_密西西比州</t>
+    <t>政策_政策_美国_密西西比州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E%E5%B7%9E%E6%97%97</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%85%8B%E9%81%9C_(%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>傑克遜 (密西西比州)</t>
+    <t>杰克逊 (密西西比州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Mississippi</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%BE%B7%C2%B7%E6%9F%AF%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>泰德·柯克蘭</t>
+    <t>泰德·柯克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%82%91%C2%B7%E5%A8%81%E5%85%8B</t>
   </si>
   <si>
-    <t>羅傑·威克</t>
+    <t>罗杰·威克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -197,9 +197,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E</t>
   </si>
   <si>
@@ -209,13 +206,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%E9%80%8A_(%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>杰克逊 (密西西比州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7</t>
   </si>
   <si>
-    <t>州長</t>
+    <t>州长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A</t>
@@ -227,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E5%93%A1</t>
   </si>
   <si>
-    <t>美國參議員</t>
+    <t>美国参议员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BB%B4%E5%B0%94</t>
@@ -245,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南密西西比大學</t>
+    <t>南密西西比大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -305,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>密西西比學院</t>
+    <t>密西西比学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tougaloo_College</t>
@@ -323,13 +317,13 @@
     <t>https://zh.wikipedia.org/wiki/20%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>20號州際公路</t>
+    <t>20号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/55%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>55號州際公路</t>
+    <t>55号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/59%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
@@ -341,13 +335,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7%E5%8B%87%E5%A3%AB</t>
   </si>
   <si>
-    <t>亞特蘭大勇士</t>
+    <t>亚特兰大勇士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCAA</t>
@@ -359,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E7%A6%8F%E5%85%8B%E7%B4%8D</t>
   </si>
   <si>
-    <t>威廉·福克納</t>
+    <t>威廉·福克纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%C2%B7%E5%A8%81%E5%BB%89%E6%96%AF</t>
@@ -377,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
@@ -395,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -413,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -437,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -473,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -503,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -515,13 +509,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -533,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -587,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -605,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -659,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -677,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -689,19 +683,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -719,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -731,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -743,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -755,25 +749,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -2009,7 +2003,7 @@
         <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="G30" t="n">
         <v>15</v>
@@ -2035,10 +2029,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>79</v>
@@ -2064,10 +2058,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -2093,10 +2087,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -2122,10 +2116,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -2151,10 +2145,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2209,10 +2203,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2238,10 +2232,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2267,10 +2261,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2296,10 +2290,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2325,10 +2319,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -2354,10 +2348,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2383,10 +2377,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2412,10 +2406,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2441,10 +2435,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2470,10 +2464,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2499,10 +2493,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2528,10 +2522,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2557,10 +2551,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2586,10 +2580,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2615,10 +2609,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2644,10 +2638,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2673,10 +2667,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2702,10 +2696,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2731,10 +2725,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2760,10 +2754,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2789,10 +2783,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -2818,10 +2812,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2847,10 +2841,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2876,10 +2870,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>4</v>
@@ -2905,10 +2899,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2934,10 +2928,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2963,10 +2957,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -2992,10 +2986,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3021,10 +3015,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3050,10 +3044,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3079,10 +3073,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3108,10 +3102,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3137,10 +3131,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3166,10 +3160,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3195,10 +3189,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3224,10 +3218,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3253,10 +3247,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3282,10 +3276,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3311,10 +3305,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3340,10 +3334,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3369,10 +3363,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3398,10 +3392,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3427,10 +3421,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3456,10 +3450,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3485,10 +3479,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3514,10 +3508,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3543,10 +3537,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3572,10 +3566,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3601,10 +3595,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3630,10 +3624,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3659,10 +3653,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3688,10 +3682,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3717,10 +3711,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3746,10 +3740,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3775,10 +3769,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3804,10 +3798,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3833,10 +3827,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3862,10 +3856,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3891,10 +3885,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3920,10 +3914,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3949,10 +3943,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3978,10 +3972,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4007,10 +4001,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4036,10 +4030,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4065,10 +4059,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4094,10 +4088,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4123,10 +4117,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4152,10 +4146,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4181,10 +4175,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4210,10 +4204,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4239,10 +4233,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -4268,10 +4262,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4297,10 +4291,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4326,10 +4320,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4355,10 +4349,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4384,10 +4378,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4413,10 +4407,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4442,10 +4436,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4471,10 +4465,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4500,10 +4494,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4529,10 +4523,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4558,10 +4552,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4587,10 +4581,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4616,10 +4610,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4645,10 +4639,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4674,10 +4668,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4703,10 +4697,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4732,10 +4726,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4761,10 +4755,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4790,10 +4784,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4819,10 +4813,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4848,10 +4842,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4877,10 +4871,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4906,10 +4900,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4935,10 +4929,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
